--- a/uft-one-ppm-executive-build-test/Default.xlsx
+++ b/uft-one-ppm-executive-build-test/Default.xlsx
@@ -181,9 +181,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -194,7 +192,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -536,10 +536,10 @@
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/uft-one-ppm-executive-build-test/Default.xlsx
+++ b/uft-one-ppm-executive-build-test/Default.xlsx
@@ -181,7 +181,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -192,9 +194,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -536,10 +536,10 @@
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>1</v>
       </c>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/uft-one-ppm-executive-build-test/Default.xlsx
+++ b/uft-one-ppm-executive-build-test/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>BrowserName</t>
   </si>
@@ -23,10 +23,16 @@
     <t>CHROME</t>
   </si>
   <si>
-    <t>http://nimbusserver.aos.com:8088/menu.html</t>
+    <t>http://nimbusserver.aos.com:8088</t>
+  </si>
+  <si>
+    <t>MSEDGE</t>
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>http://ppmdemo.mfadvantageinc.com/menu.html</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -523,7 +529,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="12.859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.8359375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,12 +538,20 @@
         <v>0</v>
       </c>
       <c t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row>
       <c s="3" t="s">
         <v>1</v>
+      </c>
+      <c s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row>
+      <c s="3" t="s">
+        <v>3</v>
       </c>
       <c s="2" t="s">
         <v>2</v>

--- a/uft-one-ppm-executive-build-test/Default.xlsx
+++ b/uft-one-ppm-executive-build-test/Default.xlsx
@@ -187,9 +187,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -200,7 +198,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -542,19 +542,19 @@
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
-        <v>5</v>
+      <c s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>3</v>
       </c>
-      <c s="2" t="s">
-        <v>2</v>
+      <c s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
